--- a/Analyzed/try8/data_2011.xlsx
+++ b/Analyzed/try8/data_2011.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>51.26</v>
       </c>
       <c r="J2">
-        <v>458.4</v>
+        <v>556.22952</v>
       </c>
       <c r="K2">
         <v>1278.76</v>
       </c>
       <c r="L2">
-        <v>497.07</v>
+        <v>604.07375</v>
       </c>
       <c r="M2">
         <v>60.24149344312383</v>
@@ -558,10 +583,10 @@
         <v>-88.04000000000001</v>
       </c>
       <c r="P2">
-        <v>392.0720130308296</v>
+        <v>508.7075201092762</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -573,19 +598,19 @@
         <v>1</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="W2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -597,10 +622,25 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>4</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>46.58</v>
       </c>
       <c r="J3">
-        <v>441</v>
+        <v>457.51623</v>
       </c>
       <c r="K3">
         <v>1942.409</v>
       </c>
       <c r="L3">
-        <v>448.98</v>
+        <v>497.01645</v>
       </c>
       <c r="M3">
         <v>73.04972213466385</v>
@@ -652,34 +692,34 @@
         <v>-84.18000000000001</v>
       </c>
       <c r="P3">
-        <v>342.4069057477699</v>
+        <v>443.9005052231646</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3">
         <v>2</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>2</v>
@@ -688,13 +728,28 @@
         <v>3</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>56.63</v>
       </c>
       <c r="J4">
-        <v>484.4</v>
+        <v>689.75224</v>
       </c>
       <c r="K4">
         <v>1263.71</v>
       </c>
       <c r="L4">
-        <v>511.98</v>
+        <v>827.5617</v>
       </c>
       <c r="M4">
         <v>58.76125709021301</v>
@@ -746,49 +801,64 @@
         <v>-110.38</v>
       </c>
       <c r="P4">
-        <v>483.903816947122</v>
+        <v>635.6118239145763</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>6</v>
       </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
       <c r="Z4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>46.71</v>
       </c>
       <c r="J5">
-        <v>463.6</v>
+        <v>494.1316</v>
       </c>
       <c r="K5">
         <v>1934.158</v>
       </c>
       <c r="L5">
-        <v>467.46</v>
+        <v>540.18755</v>
       </c>
       <c r="M5">
         <v>62.48720796349385</v>
@@ -840,28 +910,28 @@
         <v>-93.56999999999999</v>
       </c>
       <c r="P5">
-        <v>410.4364734341299</v>
+        <v>536.878927933416</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -876,12 +946,27 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>0</v>
       </c>
     </row>
@@ -916,13 +1001,13 @@
         <v>42.53</v>
       </c>
       <c r="J6">
-        <v>462.6</v>
+        <v>584.2977900000001</v>
       </c>
       <c r="K6">
         <v>1391.948</v>
       </c>
       <c r="L6">
-        <v>486.99</v>
+        <v>673.4952</v>
       </c>
       <c r="M6">
         <v>55.48946619751693</v>
@@ -934,49 +1019,64 @@
         <v>-135.34</v>
       </c>
       <c r="P6">
-        <v>397.2108808149845</v>
+        <v>521.1039996511764</v>
       </c>
       <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
         <v>3</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>3</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
         <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>38.45</v>
       </c>
       <c r="J7">
-        <v>437</v>
+        <v>457.6102100000001</v>
       </c>
       <c r="K7">
         <v>1536.891</v>
       </c>
       <c r="L7">
-        <v>462.21</v>
+        <v>539.5845</v>
       </c>
       <c r="M7">
         <v>65.51178204157729</v>
@@ -1028,31 +1128,31 @@
         <v>-102.17</v>
       </c>
       <c r="P7">
-        <v>546.0346170273833</v>
+        <v>716.6143978320122</v>
       </c>
       <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>3</v>
@@ -1064,13 +1164,28 @@
         <v>5</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
         <v>5</v>
       </c>
-      <c r="AD7">
-        <v>3</v>
+      <c r="AH7">
+        <v>4</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>25.68</v>
       </c>
       <c r="J8">
-        <v>417.2</v>
+        <v>426.39488</v>
       </c>
       <c r="K8">
         <v>962.6560000000001</v>
       </c>
       <c r="L8">
-        <v>430.08</v>
+        <v>471.6698</v>
       </c>
       <c r="M8">
         <v>65.83924156698069</v>
@@ -1122,49 +1237,64 @@
         <v>-121.91</v>
       </c>
       <c r="P8">
-        <v>308.6289342524844</v>
+        <v>400.9862809332549</v>
       </c>
       <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>27.13</v>
       </c>
       <c r="J9">
-        <v>403.8</v>
+        <v>380.1325900000001</v>
       </c>
       <c r="K9">
         <v>1476.947</v>
       </c>
       <c r="L9">
-        <v>406.98</v>
+        <v>399.64155</v>
       </c>
       <c r="M9">
         <v>75.08528648231544</v>
@@ -1216,49 +1346,64 @@
         <v>-115.44</v>
       </c>
       <c r="P9">
-        <v>325.9977860377782</v>
+        <v>423.7283435917245</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
       <c r="Y9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
